--- a/biology/Botanique/Columnea/Columnea.xlsx
+++ b/biology/Botanique/Columnea/Columnea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Columnea est un genre de plantes de la famille des Gesneriaceae. Il comprend environ 200 espèces d'arbustes et de plantes épiphytes et est originaire d'Amérique tropicale et des Caraïbes. Les fleurs tubulaires ou de forme irrégulière sont généralement de grande taille et de couleurs vives – habituellement rouge, jaune, ou orange – et ressemblent parfois à un poisson.
-Le nom générique a été créé par Carl von Linné, après l'orthographe du nom latinisé du botaniste italien du XVIe siècle Fabio Colonna. [1]
+Le nom générique a été créé par Carl von Linné, après l'orthographe du nom latinisé du botaniste italien du XVIe siècle Fabio Colonna. 
 Le genre Bucinellina est considéré par de nombreux botanistes comme synonyme de Columnea. Une liste complète des espèces maintenant acceptées dans le genre, ainsi que leurs synonymes, peut être trouvée à la Liste mondiale des Gesneriaceae.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de plantes classées sous le nom de Columnea sont les suivantes[1]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de plantes classées sous le nom de Columnea sont les suivantes:
 Columnea albiflora L.P. Kvist &amp; L.E. Skog 
 Columnea aliena (C.V. Morton) C.V. Morton 
 Columnea allenii C.V. Morton 
